--- a/Blog/posts/00-Bienvenida/Estudiantes Curso Estadística y Diseño Experimental 2024.xlsx
+++ b/Blog/posts/00-Bienvenida/Estudiantes Curso Estadística y Diseño Experimental 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inecol-my.sharepoint.com/personal/oscar_briones_inecol_mx/Documents/Desktop/EST 24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equih\0 Versiones\M3-2024_causalidad\Blog\posts\00-Bienvenida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{FF33F4AC-1E4D-4E4A-B8D8-7ADB1A4447B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6325CC-B479-4A7B-94BD-C2796EA04189}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96AF132-A39A-446F-8106-5BD86045782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8FC49C93-7AA2-40C9-B5E0-72FAD2F67E8C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{8FC49C93-7AA2-40C9-B5E0-72FAD2F67E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>No.</t>
   </si>
@@ -116,15 +116,6 @@
     <t>andrea.retavisca@posgrado.ecologia.edu.mx</t>
   </si>
   <si>
-    <t>DD23002</t>
-  </si>
-  <si>
-    <t>Alvarez Velazquez María Fernanda</t>
-  </si>
-  <si>
-    <t>maria.alvarez@posgrado.ecologia.edu.mx</t>
-  </si>
-  <si>
     <t>MM23002</t>
   </si>
   <si>
@@ -168,15 +159,6 @@
   </si>
   <si>
     <t>ismael.sanchez@posgrado.ecologia.edu.mx</t>
-  </si>
-  <si>
-    <t>asiul15396@gmail.com</t>
-  </si>
-  <si>
-    <t>Velázquez Vazquez María Luisa</t>
-  </si>
-  <si>
-    <t>SN</t>
   </si>
   <si>
     <t>ESTADÍSTICA Y DISEÑO EXPERIMENTAL 2024</t>
@@ -560,44 +542,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD9FE69-C5A0-418F-BA0E-1693E1D4946F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="17.3125" customWidth="1"/>
-    <col min="3" max="3" width="31.3125" customWidth="1"/>
+    <col min="2" max="2" width="17.31640625" customWidth="1"/>
+    <col min="3" max="3" width="31.31640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -611,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>1</v>
       </c>
@@ -625,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>2</v>
       </c>
@@ -639,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>3</v>
       </c>
@@ -653,7 +636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>4</v>
       </c>
@@ -667,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>5</v>
       </c>
@@ -681,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>6</v>
       </c>
@@ -695,7 +678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>7</v>
       </c>
@@ -709,9 +692,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -723,9 +706,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -737,9 +720,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -751,9 +734,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -765,9 +748,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -779,51 +762,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{E7C110CC-EEBC-4AD0-89B1-D9C733253701}"/>
+    <hyperlink ref="D20" r:id="rId1" xr:uid="{E7C110CC-EEBC-4AD0-89B1-D9C733253701}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
